--- a/Recommendation system/comments.xlsx
+++ b/Recommendation system/comments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aiakovleva/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AF82590-9FF5-4241-A5B6-D20BD68C0009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8FC0D23D-E4F6-D243-ABA6-C2248CC4667D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16020" xr2:uid="{D1E871B0-2E61-DB43-9C7B-A3FD157D5645}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
   <si>
     <t>Name</t>
   </si>
@@ -84,6 +84,9 @@
     <t>\</t>
   </si>
   <si>
+    <t>Final grade</t>
+  </si>
+  <si>
     <t>Sooo sor</t>
   </si>
   <si>
@@ -190,6 +193,126 @@
   </si>
   <si>
     <t xml:space="preserve">В целом  я могу рекомендовать этого поставщика  но с некоторыми оговорками  Если вы ищете надежного поставщика  который предоставляет качественную продукцию и готов решать проблемы  то этот поставщик может быть подходящим выбором  Однако  если вы ищете более доступные цены и более оперативную коммуникацию  то  возможно  стоит поискать другого поставщика </t>
+  </si>
+  <si>
+    <t>Мы получили товар, который был поврежден и не соответствовал нашим требованиям. Кроме того, их клиентский сервис был недостаточно отзывчивым и не предложил нам адекватного решения проблемы. Я не рекомендую работать с этим поставщиком и искать другие варианты</t>
+  </si>
+  <si>
+    <t>Мы работаем с этим поставщиком уже несколько лет и всегда были впечатлены качеством их продукции и уровнем предоставляемого сервиса. Их команда хорошо осведомлена, дружелюбна и всегда готова сделать все возможное, чтобы помочь нам удовлетворить наши потребности.</t>
+  </si>
+  <si>
+    <t>Продукция, которую мы получаем от этого поставщика, неизменно соответствует нашим высоким стандартам качества и производительности. Они всегда доставляются вовремя и в отличном состоянии. Мы ценим внимание к деталям и заботу о каждом заказе.</t>
+  </si>
+  <si>
+    <t>В целом, мы настоятельно рекомендуем этого поставщика всем, кто ищет высококачественную продукцию и отличный сервис. Они были ценным партнером для нашего бизнеса, и мы надеемся продолжить сотрудничество с ними в течение многих лет.</t>
+  </si>
+  <si>
+    <t>Мы были крайне недовольны работой этого поставщика. Они не только не смогли доставить товар вовремя, но и качество продукции оставляет желать лучшего. Несколько изделий были повреждены, а некоторые даже были непригодны к использованию. Кроме того, их клиентский сервис был недостаточно отзывчивым, и мы не получили достаточно помощи при решении проблемы. Я не рекомендую работать с этим поставщиком, и я думаю, что ваша компания должна искать другие варианты.</t>
+  </si>
+  <si>
+    <t>Я имел удовольствие работать с этим поставщиком в течение нескольких месяцев, и я глубоко впечатлен их уровнем профессионализма и приверженностью качеству. С самого начала нашего партнерства они постоянно предоставляли нам первоклассные продукты и исключительное обслуживание клиентов.</t>
+  </si>
+  <si>
+    <t>Одной из отличительных особенностей этого поставщика является их внимание к деталям. Они не торопятся, чтобы полностью понять наши потребности и требования, и всегда готовы сделать все возможное, чтобы гарантировать, что мы полностью удовлетворены их продуктами. Их приверженность качеству проявляется в каждом аспекте их работы, от материалов, которые они используют, до мастерства изготовления своей продукции.</t>
+  </si>
+  <si>
+    <t>Они всегда готовы ответить на любые вопросы, которые у нас есть, и быстро решить любые проблемы или проблемы, которые возникают. Они действительно ценят наш бизнес и настроены на долгосрочное сотрудничество с нами.</t>
+  </si>
+  <si>
+    <t>Я был крайне неудовлетворен работой этого поставщика. Они не только не смогли доставить товар вовремя, но и качество продукции оставляет желать лучшего. Мы получили товар, который был далек от того, что мы заказывали, и мы были вынуждены потратить дополнительное время и ресурсы на возврат и замену продукции. Кроме того, их клиентский сервис был недостаточно отзывчивым и не предложил нам адекватного решения проблемы.</t>
+  </si>
+  <si>
+    <t>Мы имели дело с этим поставщиком в течение некоторого времени, и в целом, мы остались довольны качеством их продукции. Однако, мы столкнулись с некоторыми проблемами в процессе работы с ними. Некоторые заказы были задержаны, и мы не всегда получали достаточно информации о статусе нашего заказа. Кроме того, цены этого поставщика выше, чем у некоторых конкурентов на рынке. Тем не менее, мы были приятно удивлены их отзывчивостью и готовностью решать возникающие проблемы. В целом, мы рекомендуем этого поставщика, но рекомендуем быть готовыми к некоторым задержкам и высоким ценам.</t>
+  </si>
+  <si>
+    <t> в течение нескольких месяцев и, в целом, мы остались довольны качеством их продукции. Однако, мы столкнулись с некоторыми проблемами в процессе работы с ними. Некоторые заказы были задержаны, и мы не всегда получали достаточно информации о статусе нашего заказа. Кроме того, цены этого поставщика немного выше, чем у некоторых других наших поставщиков. Тем не менее, мы были приятно удивлены их отзывчивостью и готовностью решать возникающие проблемы. </t>
+  </si>
+  <si>
+    <t>Как владелец ресторана, я пользуюсь услугами этого поставщика уже несколько месяцев и должен сказать, что я вполне доволен их продуктами и услугами. Качество ингредиентов, которые они предоставляют, всегда хорошее и свежее. Я очень ценю их внимание к деталям, когда речь идет об упаковке и доставке продуктов в мой ресторан. Персонал также очень услужливый и отзывчивый на любые вопросы или проблемы, которые у меня были. Их цены вполне конкурентоспособны и разумны, и я считаю их очень надежными с точки зрения соблюдения сроков доставки. В целом, я определенно рекомендую этого поставщика любому владельцу ресторана, который ищет надежного и эффективного поставщика продуктов для сети ресторанов.</t>
+  </si>
+  <si>
+    <t> Поставщик был отзывчивым и профессиональным, быстро отвечал на любые вопросы, которые у меня были об их продуктах. Они также были эффективны в выполнении моего заказа, и он прибыл своевременно</t>
+  </si>
+  <si>
+    <t>В целом, я бы порекомендовал этого поставщика другим владельцам и менеджерам продуктовых магазинов. Хотя были некоторые незначительные сбои, общее впечатление было положительным, а предлагаемые продукты были хорошего качества.</t>
+  </si>
+  <si>
+    <t>Как владелец кофейни, я работаю с этим поставщиком в течение последнего года и в целом могу сказать, что их услуги удовлетворительны. Они обеспечили нас постоянными поставками высококачественных кофейных зерен по разумным ценам. Доставка продукции всегда была вовремя, а персонал всегда вежлив и профессионален.</t>
+  </si>
+  <si>
+    <t>было несколько случаев, когда мы сталкивались с задержками в доставке наших заказов, что вызывало некоторые неудобства в нашей работе. Кроме того, было несколько случаев, когда качество зерен не соответствовало нашим ожиданиям.</t>
+  </si>
+  <si>
+    <t>рекомендую этого поставщика другим владельцам кофеен, которые ищут надежный источник кофейных зерен. В целом, они предоставили нам хороший сервис, и мы остались довольны их продукцией.</t>
+  </si>
+  <si>
+    <t>Я работал с этим поставщиком, и я разочарован их сервисом. Они не смогли выполнить заказ вовремя, и когда я связался с ними, чтобы узнать причину задержки, они были недоступны и не ответили на мои звонки и сообщения. Когда они, наконец, связались со мной, они не предложили никаких извинений и не предоставили никакой компенсации за задержку. Кроме того, качество их продуктов оставляет желать лучшего. Я не рекомендую этого поставщика и не буду больше работать с ними.</t>
+  </si>
+  <si>
+    <t>Ужасно! Никому не советую обращаться к этой компании</t>
+  </si>
+  <si>
+    <t>Этот поставщик детского питания - полный кошмар! Качество их продуктов ужасное, и я не рекомендую их никому. Мы заказали у них несколько блюд для нашего ребенка, и все они были несъедобными. Они были пересолены, переслащены и имели странный послевкусие. Когда я связался с поставщиком, чтобы пожаловаться на качество продуктов, они были невежливы и неохотно предложили нам замену или возврат денег. Кроме того, у них были проблемы с доставкой. Наш заказ задерживался на несколько дней, и когда он, наконец, пришел, все блюда были разбиты и испорчены.</t>
+  </si>
+  <si>
+    <t>Недавно я имел удовольствие работать с поставщиком древесины для моей строительной площадки, и должен сказать, что я очень доволен их услугами. С самого начала персонал был знающим, дружелюбным и услужливым. Они нашли время, чтобы понять мои потребности и предоставили мне множество вариантов на выбор.</t>
+  </si>
+  <si>
+    <t>Качество древесины было исключительным, и она была доставлена ​​вовремя и в отличном состоянии. Команда поставщика также сделала все возможное, помогая мне с установкой и отвечая на любые мои вопросы. Я был впечатлен их вниманием к деталям и их стремлением обеспечить мое удовлетворение.</t>
+  </si>
+  <si>
+    <t>Цены были очень разумными, и я чувствовал, что получил отличное соотношение цены и качества. В целом, я очень рекомендую этого поставщика древесины всем, кто нуждается в высококачественной древесине для своего строительного проекта. Они превзошли мои ожидания во всех отношениях, и я благодарен за их исключительное обслуживание.</t>
+  </si>
+  <si>
+    <t>Этот поставщик презервативов - полная катастрофа! Я заказал у них несколько упаковок презервативов, и они оказались некачественными. Каждый второй презерватив был поврежден или имел дефекты, что сделало их непригодными для использовани. Клиенты моего магазина были невероятно недовольны</t>
+  </si>
+  <si>
+    <t>Когда я связался с поставщиком, чтобы пожаловаться на качество продукции, они были невежливы и неохотно предложили нам замену или возврат денег. Кроме того, доставка заняла намного больше времени, чем было заявлено, и я был вынужден искать другой источник презервативов в крайний момент. Я очень разочарован этим поставщиком и не рекомендую их никому.</t>
+  </si>
+  <si>
+    <t>"Я был очень впечатлен качеством замороженной пиццы, которую мы получили от этого поставщика для нашей школы. Пиццы были свежими и вкусными, и наши студенты и учителя наслаждались ими каждый раз, когда мы заказывали их. Я также был очень доволен процессом заказа и доставки. </t>
+  </si>
+  <si>
+    <t>Недавно я купил большое количество малины у этого поставщика для своего продуктового магазина, и я должен сказать, что я очень разочарован. В то время как малина выглядела свежей и пухлой снаружи, многие из них были заплесневевшими или имели синяки при ближайшем рассмотрении. Кроме того, срок годности ягод был очень коротким — казалось, они портились всего за несколько дней. Я не уверен, является ли это разовой проблемой или повторяющейся проблемой с этим поставщиком, но это определенно вызывает у меня некоторые опасения. Я бы дважды подумал, прежде чем покупать у них снова.</t>
+  </si>
+  <si>
+    <t>Как владелец кофейни, я недавно заказал оптом соломинки у поставщика, которым никогда раньше не пользовался. Однако должен сказать, что я был крайне разочарован качеством этих соломинок. Они были хрупкими и, казалось, легко ломались, когда их использовали мои клиенты. Кроме того, поставщик обещал доставить соломинки в течение недели, но они шли почти две недели. Это вызвало задержки в моем бизнесе и расстроило моих клиентов.</t>
+  </si>
+  <si>
+    <t>когда я попытался связаться с поставщиком, чтобы решить мои проблемы, я обнаружил, что их служба поддержки клиентов отсутствует. Меня отложили на длительный период времени, и когда я, наконец, связался с представителем, они, похоже, не были заинтересованы в том, чтобы мне помочь. У меня осталось впечатление, что этот поставщик больше заинтересован в быстром получении денег, чем в предоставлении качественных продуктов и обслуживания клиентов.</t>
+  </si>
+  <si>
+    <t>Как владелец мебельной мастерской, у меня был ужасный опыт работы с поставщиком тканей, которого мы использовали. Их ткань некачественная, и мы получили несколько партий с пятнами и дефектами, из-за которых мы задержали заказы для наших клиентов.</t>
+  </si>
+  <si>
+    <t>Я очень доволен качеством тканей, которые мы получили от этого поставщика. Они были высокого качества и очень прочные, что идеально подходило для наших мебельных проектов. Кроме того, мы оценили широкий выбор цветов и дизайнов, что позволило нам подобрать идеальную ткань для каждого из наших проектов.</t>
+  </si>
+  <si>
+    <t> У них всегда есть то, что мне нужно, и у меня не было проблем с их продуктами. Они всегда вовремя с доставкой, так что мне никогда не приходилось ждать слишком долго. К тому же цены у них очень хорошие, не слишком дорогие, но и не слишком дешевые. В целом, я думаю, что они довольно хороший поставщик гвоздей, и я буду продолжать использовать их для своей мебельной мастерской.</t>
+  </si>
+  <si>
+    <t>Итак, я пошел к этому поставщику мебели для своих клиентов, и меня это не впечатлило. У них было много вещей, но все выглядело как-то дешево. Я имею в виду, что цены тоже были низкими, но вы получаете то, за что платите. В конце концов мне пришлось ремонтировать вещи, которые купили мои клиенты, и позвольте мне сказать вам, что это была заноза в заднице. Да качества просто не было. Больше на это место не вернусь и не рекомендую никому, кому нужна качественная мебель.</t>
+  </si>
+  <si>
+    <t>Этот поставщик мебели - полный отстой! Они никогда не доставляют вовремя и их продукты всегда приходят в плохом состоянии. Кроме того, их мебель невероятно неудобна и не практична. Я никогда не буду покупать у них ничего еще раз.</t>
+  </si>
+  <si>
+    <t>В общем и целом, я бы никому не рекомендовал этого поставщика мебели. Они полный отстой и не стоят ваших денег. Если вы ищете хорошую мебель для своей ремонтной компании, то лучше искать другого поставщика.</t>
+  </si>
+  <si>
+    <t>Они привезли нам ужасные цветы, которые были уже вялые и начинали увядать. Кроме того, они не привезли все цветы, которые мы заказали, и мы были вынуждены идти в другой магазин за недостающими цветами.</t>
+  </si>
+  <si>
+    <t>Я рад написать очень довольный отзыв о поставщике цветов, с которым я работал в качестве организатора свадеб. Предоставленные цветы были просто потрясающими и превзошли все ожидания. Поставщик оказался профессиональным, надежным и с ним было легко работать. Они внимательно выслушали видение невесты и воплотили его в жизнь своими прекрасными аранжировками.</t>
+  </si>
+  <si>
+    <t>у меня было 2 плана этой проклятой свадьбы, и я искал хорошего поставщика цветов, но один из них я нашел, и это был полный бюст! Они не понимали ни слова из того, что я говорил, и продолжали просить меня объяснить все по буквам. я пытался 2 объяснить, что я хотел, но они продолжали путаться и посылать не те цветы.</t>
+  </si>
+  <si>
+    <t>Этот поставщик цветов - отвратительный ужас! Они привезли нам цветы, которые были уже вялые и начинали увядать. Мы были очень разочарованы качеством цветов, которые мы получили, и это испортило наше настроение на весь день.</t>
+  </si>
+  <si>
+    <t>Привет! Я хозяин детского магазина и я очень разочарован поставщиком кукол! Куклы были очень плохого качества и выглядели недоделанными. Я думал, что мои клиенты будут рады иметь новый ассортимент игрушек, но я ошибся. Когда я связался с поставщиком, чтобы сообщить о проблеме, он не ответил мне в течение нескольких дней. Я не могу рекомендовать этого поставщика никому. Если вы хотите продать качественные игрушки в своем магазине, ищите другого поставщика!</t>
   </si>
 </sst>
 </file>
@@ -551,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0361F2-CACB-3744-BD1B-7E9B69961FAA}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -574,13 +697,16 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -591,10 +717,10 @@
     </row>
     <row r="3" spans="1:4" ht="162" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -605,10 +731,10 @@
     </row>
     <row r="4" spans="1:4" ht="198" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -622,7 +748,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -636,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -650,7 +776,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -664,7 +790,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -678,7 +804,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -692,7 +818,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -706,7 +832,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -720,7 +846,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -734,7 +860,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -748,7 +874,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -762,7 +888,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -776,7 +902,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -790,7 +916,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -804,7 +930,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -815,10 +941,10 @@
     </row>
     <row r="19" spans="1:4" ht="162" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -829,10 +955,10 @@
     </row>
     <row r="20" spans="1:4" ht="72" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -843,10 +969,10 @@
     </row>
     <row r="21" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -857,10 +983,10 @@
     </row>
     <row r="22" spans="1:4" ht="126" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -871,10 +997,10 @@
     </row>
     <row r="23" spans="1:4" ht="72" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -885,10 +1011,10 @@
     </row>
     <row r="24" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -899,10 +1025,10 @@
     </row>
     <row r="25" spans="1:4" ht="126" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -913,16 +1039,456 @@
     </row>
     <row r="26" spans="1:4" ht="144" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26">
         <v>4</v>
       </c>
       <c r="D26">
         <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="108" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="108" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="108" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="108" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="180" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="108" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="162" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="162" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="234" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="180" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="270" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="72" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="126" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="72" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="180" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="36" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="216" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="126" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="108" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="108" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="108" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="234" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="162" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="180" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="108" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="126" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" ht="180" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" ht="126" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" ht="180" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
